--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F2-Gp1ba.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F2-Gp1ba.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H2">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I2">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J2">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.346352666666667</v>
+        <v>2.762460333333333</v>
       </c>
       <c r="N2">
-        <v>10.039058</v>
+        <v>8.287381</v>
       </c>
       <c r="O2">
-        <v>0.3139821979784092</v>
+        <v>0.2369432190408618</v>
       </c>
       <c r="P2">
-        <v>0.3139821979784092</v>
+        <v>0.2369432190408618</v>
       </c>
       <c r="Q2">
-        <v>3.069833506762</v>
+        <v>3.451309283693556</v>
       </c>
       <c r="R2">
-        <v>27.628501560858</v>
+        <v>31.061783553242</v>
       </c>
       <c r="S2">
-        <v>0.123892081606115</v>
+        <v>0.1027809752878857</v>
       </c>
       <c r="T2">
-        <v>0.1238920816061149</v>
+        <v>0.1027809752878857</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H3">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I3">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J3">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>12.922368</v>
       </c>
       <c r="O3">
-        <v>0.4041607795996257</v>
+        <v>0.3694614102513958</v>
       </c>
       <c r="P3">
-        <v>0.4041607795996257</v>
+        <v>0.3694614102513958</v>
       </c>
       <c r="Q3">
-        <v>3.951517988351999</v>
+        <v>5.381566099797333</v>
       </c>
       <c r="R3">
-        <v>35.56366189516799</v>
+        <v>48.434094898176</v>
       </c>
       <c r="S3">
-        <v>0.1594750295097656</v>
+        <v>0.160264574063744</v>
       </c>
       <c r="T3">
-        <v>0.1594750295097656</v>
+        <v>0.160264574063744</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H4">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I4">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J4">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.05776</v>
+        <v>1.776664666666667</v>
       </c>
       <c r="N4">
-        <v>3.17328</v>
+        <v>5.329994000000001</v>
       </c>
       <c r="O4">
-        <v>0.09924770124855603</v>
+        <v>0.1523890280691185</v>
       </c>
       <c r="P4">
-        <v>0.09924770124855603</v>
+        <v>0.1523890280691185</v>
       </c>
       <c r="Q4">
-        <v>0.9703541179199999</v>
+        <v>2.219694952389778</v>
       </c>
       <c r="R4">
-        <v>8.733187061279999</v>
+        <v>19.97725457150801</v>
       </c>
       <c r="S4">
-        <v>0.03916146960392623</v>
+        <v>0.06610314906465374</v>
       </c>
       <c r="T4">
-        <v>0.03916146960392623</v>
+        <v>0.06610314906465373</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H5">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I5">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J5">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.122709333333333</v>
+        <v>1.351364</v>
       </c>
       <c r="N5">
-        <v>3.368128</v>
+        <v>4.054092</v>
       </c>
       <c r="O5">
-        <v>0.105341779329557</v>
+        <v>0.1159099127659034</v>
       </c>
       <c r="P5">
-        <v>0.105341779329557</v>
+        <v>0.1159099127659034</v>
       </c>
       <c r="Q5">
-        <v>1.029936492992</v>
+        <v>1.688341027949334</v>
       </c>
       <c r="R5">
-        <v>9.269428436927999</v>
+        <v>15.195069251544</v>
       </c>
       <c r="S5">
-        <v>0.0415660900689926</v>
+        <v>0.05027927757476278</v>
       </c>
       <c r="T5">
-        <v>0.0415660900689926</v>
+        <v>0.05027927757476277</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H6">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I6">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J6">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8235003333333334</v>
+        <v>1.460799</v>
       </c>
       <c r="N6">
-        <v>2.470501</v>
+        <v>4.382397</v>
       </c>
       <c r="O6">
-        <v>0.07726754184385208</v>
+        <v>0.1252964298727204</v>
       </c>
       <c r="P6">
-        <v>0.07726754184385208</v>
+        <v>0.1252964298727204</v>
       </c>
       <c r="Q6">
-        <v>0.755452030289</v>
+        <v>1.825064812506</v>
       </c>
       <c r="R6">
-        <v>6.799068272601</v>
+        <v>16.425583312554</v>
       </c>
       <c r="S6">
-        <v>0.03048846928665903</v>
+        <v>0.0543509508925322</v>
       </c>
       <c r="T6">
-        <v>0.03048846928665903</v>
+        <v>0.0543509508925322</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.472129</v>
       </c>
       <c r="I7">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J7">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.346352666666667</v>
+        <v>2.762460333333333</v>
       </c>
       <c r="N7">
-        <v>10.039058</v>
+        <v>8.287381</v>
       </c>
       <c r="O7">
-        <v>0.3139821979784092</v>
+        <v>0.2369432190408618</v>
       </c>
       <c r="P7">
-        <v>0.3139821979784092</v>
+        <v>0.2369432190408618</v>
       </c>
       <c r="Q7">
-        <v>2.757538490498</v>
+        <v>2.276386100461</v>
       </c>
       <c r="R7">
-        <v>24.817846414482</v>
+        <v>20.487474904149</v>
       </c>
       <c r="S7">
-        <v>0.1112885056939565</v>
+        <v>0.06779142763084307</v>
       </c>
       <c r="T7">
-        <v>0.1112885056939565</v>
+        <v>0.06779142763084306</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.472129</v>
       </c>
       <c r="I8">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J8">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>12.922368</v>
       </c>
       <c r="O8">
-        <v>0.4041607795996257</v>
+        <v>0.3694614102513958</v>
       </c>
       <c r="P8">
-        <v>0.4041607795996257</v>
+        <v>0.3694614102513958</v>
       </c>
       <c r="Q8">
         <v>3.549528964607999</v>
@@ -948,10 +948,10 @@
         <v>31.945760681472</v>
       </c>
       <c r="S8">
-        <v>0.1432515904129054</v>
+        <v>0.1057059854121733</v>
       </c>
       <c r="T8">
-        <v>0.1432515904129054</v>
+        <v>0.1057059854121733</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.472129</v>
       </c>
       <c r="I9">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J9">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.05776</v>
+        <v>1.776664666666667</v>
       </c>
       <c r="N9">
-        <v>3.17328</v>
+        <v>5.329994000000001</v>
       </c>
       <c r="O9">
-        <v>0.09924770124855603</v>
+        <v>0.1523890280691185</v>
       </c>
       <c r="P9">
-        <v>0.09924770124855603</v>
+        <v>0.1523890280691185</v>
       </c>
       <c r="Q9">
-        <v>0.87163972368</v>
+        <v>1.464048081914</v>
       </c>
       <c r="R9">
-        <v>7.844757513119999</v>
+        <v>13.176432737226</v>
       </c>
       <c r="S9">
-        <v>0.03517756241158466</v>
+        <v>0.04359976964059308</v>
       </c>
       <c r="T9">
-        <v>0.03517756241158466</v>
+        <v>0.04359976964059307</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.472129</v>
       </c>
       <c r="I10">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J10">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.122709333333333</v>
+        <v>1.351364</v>
       </c>
       <c r="N10">
-        <v>3.368128</v>
+        <v>4.054092</v>
       </c>
       <c r="O10">
-        <v>0.105341779329557</v>
+        <v>0.1159099127659034</v>
       </c>
       <c r="P10">
-        <v>0.105341779329557</v>
+        <v>0.1159099127659034</v>
       </c>
       <c r="Q10">
-        <v>0.925160767168</v>
+        <v>1.113582044652</v>
       </c>
       <c r="R10">
-        <v>8.326446904512</v>
+        <v>10.022238401868</v>
       </c>
       <c r="S10">
-        <v>0.03733756016809289</v>
+        <v>0.03316279104662617</v>
       </c>
       <c r="T10">
-        <v>0.03733756016809289</v>
+        <v>0.03316279104662617</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>2.472129</v>
       </c>
       <c r="I11">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J11">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8235003333333334</v>
+        <v>1.460799</v>
       </c>
       <c r="N11">
-        <v>2.470501</v>
+        <v>4.382397</v>
       </c>
       <c r="O11">
-        <v>0.07726754184385208</v>
+        <v>0.1252964298727204</v>
       </c>
       <c r="P11">
-        <v>0.07726754184385208</v>
+        <v>0.1252964298727204</v>
       </c>
       <c r="Q11">
-        <v>0.678599685181</v>
+        <v>1.203761190357</v>
       </c>
       <c r="R11">
-        <v>6.107397166628999</v>
+        <v>10.833850713213</v>
       </c>
       <c r="S11">
-        <v>0.02738686882827306</v>
+        <v>0.03584835173803688</v>
       </c>
       <c r="T11">
-        <v>0.02738686882827306</v>
+        <v>0.03584835173803687</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.172111</v>
+        <v>0.040438</v>
       </c>
       <c r="H12">
-        <v>0.5163329999999999</v>
+        <v>0.121314</v>
       </c>
       <c r="I12">
-        <v>0.07402936755031217</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J12">
-        <v>0.07402936755031216</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.346352666666667</v>
+        <v>2.762460333333333</v>
       </c>
       <c r="N12">
-        <v>10.039058</v>
+        <v>8.287381</v>
       </c>
       <c r="O12">
-        <v>0.3139821979784092</v>
+        <v>0.2369432190408618</v>
       </c>
       <c r="P12">
-        <v>0.3139821979784092</v>
+        <v>0.2369432190408618</v>
       </c>
       <c r="Q12">
-        <v>0.5759441038126666</v>
+        <v>0.1117083709593333</v>
       </c>
       <c r="R12">
-        <v>5.183496934313999</v>
+        <v>1.005375338634</v>
       </c>
       <c r="S12">
-        <v>0.02324390353839854</v>
+        <v>0.003326707162776739</v>
       </c>
       <c r="T12">
-        <v>0.02324390353839853</v>
+        <v>0.003326707162776739</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.172111</v>
+        <v>0.040438</v>
       </c>
       <c r="H13">
-        <v>0.5163329999999999</v>
+        <v>0.121314</v>
       </c>
       <c r="I13">
-        <v>0.07402936755031217</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J13">
-        <v>0.07402936755031216</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>12.922368</v>
       </c>
       <c r="O13">
-        <v>0.4041607795996257</v>
+        <v>0.3694614102513958</v>
       </c>
       <c r="P13">
-        <v>0.4041607795996257</v>
+        <v>0.3694614102513958</v>
       </c>
       <c r="Q13">
-        <v>0.7413605596159998</v>
+        <v>0.174184905728</v>
       </c>
       <c r="R13">
-        <v>6.672245036543998</v>
+        <v>1.567664151552</v>
       </c>
       <c r="S13">
-        <v>0.0299197669024014</v>
+        <v>0.005187276195656615</v>
       </c>
       <c r="T13">
-        <v>0.02991976690240139</v>
+        <v>0.005187276195656615</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.172111</v>
+        <v>0.040438</v>
       </c>
       <c r="H14">
-        <v>0.5163329999999999</v>
+        <v>0.121314</v>
       </c>
       <c r="I14">
-        <v>0.07402936755031217</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J14">
-        <v>0.07402936755031216</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.05776</v>
+        <v>1.776664666666667</v>
       </c>
       <c r="N14">
-        <v>3.17328</v>
+        <v>5.329994000000001</v>
       </c>
       <c r="O14">
-        <v>0.09924770124855603</v>
+        <v>0.1523890280691185</v>
       </c>
       <c r="P14">
-        <v>0.09924770124855603</v>
+        <v>0.1523890280691185</v>
       </c>
       <c r="Q14">
-        <v>0.18205213136</v>
+        <v>0.07184476579066669</v>
       </c>
       <c r="R14">
-        <v>1.63846918224</v>
+        <v>0.6466028921160002</v>
       </c>
       <c r="S14">
-        <v>0.00734724455425293</v>
+        <v>0.002139557625908239</v>
       </c>
       <c r="T14">
-        <v>0.007347244554252929</v>
+        <v>0.002139557625908239</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.172111</v>
+        <v>0.040438</v>
       </c>
       <c r="H15">
-        <v>0.5163329999999999</v>
+        <v>0.121314</v>
       </c>
       <c r="I15">
-        <v>0.07402936755031217</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J15">
-        <v>0.07402936755031216</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.122709333333333</v>
+        <v>1.351364</v>
       </c>
       <c r="N15">
-        <v>3.368128</v>
+        <v>4.054092</v>
       </c>
       <c r="O15">
-        <v>0.105341779329557</v>
+        <v>0.1159099127659034</v>
       </c>
       <c r="P15">
-        <v>0.105341779329557</v>
+        <v>0.1159099127659034</v>
       </c>
       <c r="Q15">
-        <v>0.1932306260693333</v>
+        <v>0.054646457432</v>
       </c>
       <c r="R15">
-        <v>1.739075634624</v>
+        <v>0.491818116888</v>
       </c>
       <c r="S15">
-        <v>0.00779838530039165</v>
+        <v>0.001627387095507721</v>
       </c>
       <c r="T15">
-        <v>0.007798385300391648</v>
+        <v>0.001627387095507721</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.172111</v>
+        <v>0.040438</v>
       </c>
       <c r="H16">
-        <v>0.5163329999999999</v>
+        <v>0.121314</v>
       </c>
       <c r="I16">
-        <v>0.07402936755031217</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J16">
-        <v>0.07402936755031216</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8235003333333334</v>
+        <v>1.460799</v>
       </c>
       <c r="N16">
-        <v>2.470501</v>
+        <v>4.382397</v>
       </c>
       <c r="O16">
-        <v>0.07726754184385208</v>
+        <v>0.1252964298727204</v>
       </c>
       <c r="P16">
-        <v>0.07726754184385208</v>
+        <v>0.1252964298727204</v>
       </c>
       <c r="Q16">
-        <v>0.1417334658703333</v>
+        <v>0.059071789962</v>
       </c>
       <c r="R16">
-        <v>1.275601192833</v>
+        <v>0.5316461096580001</v>
       </c>
       <c r="S16">
-        <v>0.005720067254867651</v>
+        <v>0.001759174761004869</v>
       </c>
       <c r="T16">
-        <v>0.00572006725486765</v>
+        <v>0.001759174761004869</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3345336666666667</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H17">
-        <v>1.003601</v>
+        <v>1.615757</v>
       </c>
       <c r="I17">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J17">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.346352666666667</v>
+        <v>2.762460333333333</v>
       </c>
       <c r="N17">
-        <v>10.039058</v>
+        <v>8.287381</v>
       </c>
       <c r="O17">
-        <v>0.3139821979784092</v>
+        <v>0.2369432190408618</v>
       </c>
       <c r="P17">
-        <v>0.3139821979784092</v>
+        <v>0.2369432190408618</v>
       </c>
       <c r="Q17">
-        <v>1.119467627539778</v>
+        <v>1.487821540268556</v>
       </c>
       <c r="R17">
-        <v>10.075208647858</v>
+        <v>13.390393862417</v>
       </c>
       <c r="S17">
-        <v>0.0451793800416404</v>
+        <v>0.04430775001406809</v>
       </c>
       <c r="T17">
-        <v>0.0451793800416404</v>
+        <v>0.04430775001406808</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3345336666666667</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H18">
-        <v>1.003601</v>
+        <v>1.615757</v>
       </c>
       <c r="I18">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J18">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>12.922368</v>
       </c>
       <c r="O18">
-        <v>0.4041607795996257</v>
+        <v>0.3694614102513958</v>
       </c>
       <c r="P18">
-        <v>0.4041607795996257</v>
+        <v>0.3694614102513958</v>
       </c>
       <c r="Q18">
-        <v>1.440989049685333</v>
+        <v>2.319934061397333</v>
       </c>
       <c r="R18">
-        <v>12.968901447168</v>
+        <v>20.879406552576</v>
       </c>
       <c r="S18">
-        <v>0.05815531446376069</v>
+        <v>0.0690882983337912</v>
       </c>
       <c r="T18">
-        <v>0.05815531446376069</v>
+        <v>0.0690882983337912</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3345336666666667</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H19">
-        <v>1.003601</v>
+        <v>1.615757</v>
       </c>
       <c r="I19">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J19">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.05776</v>
+        <v>1.776664666666667</v>
       </c>
       <c r="N19">
-        <v>3.17328</v>
+        <v>5.329994000000001</v>
       </c>
       <c r="O19">
-        <v>0.09924770124855603</v>
+        <v>0.1523890280691185</v>
       </c>
       <c r="P19">
-        <v>0.09924770124855603</v>
+        <v>0.1523890280691185</v>
       </c>
       <c r="Q19">
-        <v>0.3538563312533334</v>
+        <v>0.9568861239397781</v>
       </c>
       <c r="R19">
-        <v>3.18470698128</v>
+        <v>8.611975115458002</v>
       </c>
       <c r="S19">
-        <v>0.0142809039551855</v>
+        <v>0.02849634181516246</v>
       </c>
       <c r="T19">
-        <v>0.0142809039551855</v>
+        <v>0.02849634181516246</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3345336666666667</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H20">
-        <v>1.003601</v>
+        <v>1.615757</v>
       </c>
       <c r="I20">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J20">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.122709333333333</v>
+        <v>1.351364</v>
       </c>
       <c r="N20">
-        <v>3.368128</v>
+        <v>4.054092</v>
       </c>
       <c r="O20">
-        <v>0.105341779329557</v>
+        <v>0.1159099127659034</v>
       </c>
       <c r="P20">
-        <v>0.105341779329557</v>
+        <v>0.1159099127659034</v>
       </c>
       <c r="Q20">
-        <v>0.3755840698808889</v>
+        <v>0.7278252808493334</v>
       </c>
       <c r="R20">
-        <v>3.380256628928</v>
+        <v>6.550427527644</v>
       </c>
       <c r="S20">
-        <v>0.01515779019713704</v>
+        <v>0.02167484454618815</v>
       </c>
       <c r="T20">
-        <v>0.01515779019713704</v>
+        <v>0.02167484454618815</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3345336666666667</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H21">
-        <v>1.003601</v>
+        <v>1.615757</v>
       </c>
       <c r="I21">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J21">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.8235003333333334</v>
+        <v>1.460799</v>
       </c>
       <c r="N21">
-        <v>2.470501</v>
+        <v>4.382397</v>
       </c>
       <c r="O21">
-        <v>0.07726754184385208</v>
+        <v>0.1252964298727204</v>
       </c>
       <c r="P21">
-        <v>0.07726754184385208</v>
+        <v>0.1252964298727204</v>
       </c>
       <c r="Q21">
-        <v>0.2754885860112222</v>
+        <v>0.7867654032810001</v>
       </c>
       <c r="R21">
-        <v>2.479397274101</v>
+        <v>7.080888629529</v>
       </c>
       <c r="S21">
-        <v>0.01111814510606998</v>
+        <v>0.02343009821056881</v>
       </c>
       <c r="T21">
-        <v>0.01111814510606998</v>
+        <v>0.02343009821056881</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.076847</v>
+        <v>0.227751</v>
       </c>
       <c r="H22">
-        <v>0.230541</v>
+        <v>0.683253</v>
       </c>
       <c r="I22">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="J22">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.346352666666667</v>
+        <v>2.762460333333333</v>
       </c>
       <c r="N22">
-        <v>10.039058</v>
+        <v>8.287381</v>
       </c>
       <c r="O22">
-        <v>0.3139821979784092</v>
+        <v>0.2369432190408618</v>
       </c>
       <c r="P22">
-        <v>0.3139821979784092</v>
+        <v>0.2369432190408618</v>
       </c>
       <c r="Q22">
-        <v>0.2571571633753333</v>
+        <v>0.629153103377</v>
       </c>
       <c r="R22">
-        <v>2.314414470378</v>
+        <v>5.662377930393</v>
       </c>
       <c r="S22">
-        <v>0.01037832709829884</v>
+        <v>0.01873635894528822</v>
       </c>
       <c r="T22">
-        <v>0.01037832709829884</v>
+        <v>0.01873635894528822</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.076847</v>
+        <v>0.227751</v>
       </c>
       <c r="H23">
-        <v>0.230541</v>
+        <v>0.683253</v>
       </c>
       <c r="I23">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="J23">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>12.922368</v>
       </c>
       <c r="O23">
-        <v>0.4041607795996257</v>
+        <v>0.3694614102513958</v>
       </c>
       <c r="P23">
-        <v>0.4041607795996257</v>
+        <v>0.3694614102513958</v>
       </c>
       <c r="Q23">
-        <v>0.3310150712319999</v>
+        <v>0.9810274114559999</v>
       </c>
       <c r="R23">
-        <v>2.979135641087999</v>
+        <v>8.829246703103999</v>
       </c>
       <c r="S23">
-        <v>0.01335907831079269</v>
+        <v>0.0292152762460307</v>
       </c>
       <c r="T23">
-        <v>0.01335907831079269</v>
+        <v>0.0292152762460307</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.076847</v>
+        <v>0.227751</v>
       </c>
       <c r="H24">
-        <v>0.230541</v>
+        <v>0.683253</v>
       </c>
       <c r="I24">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="J24">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.05776</v>
+        <v>1.776664666666667</v>
       </c>
       <c r="N24">
-        <v>3.17328</v>
+        <v>5.329994000000001</v>
       </c>
       <c r="O24">
-        <v>0.09924770124855603</v>
+        <v>0.1523890280691185</v>
       </c>
       <c r="P24">
-        <v>0.09924770124855603</v>
+        <v>0.1523890280691185</v>
       </c>
       <c r="Q24">
-        <v>0.08128568272</v>
+        <v>0.4046371544980001</v>
       </c>
       <c r="R24">
-        <v>0.73157114448</v>
+        <v>3.641734390482001</v>
       </c>
       <c r="S24">
-        <v>0.003280520723606713</v>
+        <v>0.01205020992280101</v>
       </c>
       <c r="T24">
-        <v>0.003280520723606713</v>
+        <v>0.01205020992280101</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.076847</v>
+        <v>0.227751</v>
       </c>
       <c r="H25">
-        <v>0.230541</v>
+        <v>0.683253</v>
       </c>
       <c r="I25">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="J25">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.122709333333333</v>
+        <v>1.351364</v>
       </c>
       <c r="N25">
-        <v>3.368128</v>
+        <v>4.054092</v>
       </c>
       <c r="O25">
-        <v>0.105341779329557</v>
+        <v>0.1159099127659034</v>
       </c>
       <c r="P25">
-        <v>0.105341779329557</v>
+        <v>0.1159099127659034</v>
       </c>
       <c r="Q25">
-        <v>0.08627684413866667</v>
+        <v>0.307774502364</v>
       </c>
       <c r="R25">
-        <v>0.776491597248</v>
+        <v>2.769970521276</v>
       </c>
       <c r="S25">
-        <v>0.003481953594942782</v>
+        <v>0.009165612502818611</v>
       </c>
       <c r="T25">
-        <v>0.003481953594942782</v>
+        <v>0.00916561250281861</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.076847</v>
+        <v>0.227751</v>
       </c>
       <c r="H26">
-        <v>0.230541</v>
+        <v>0.683253</v>
       </c>
       <c r="I26">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="J26">
-        <v>0.0330538710956234</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.8235003333333334</v>
+        <v>1.460799</v>
       </c>
       <c r="N26">
-        <v>2.470501</v>
+        <v>4.382397</v>
       </c>
       <c r="O26">
-        <v>0.07726754184385208</v>
+        <v>0.1252964298727204</v>
       </c>
       <c r="P26">
-        <v>0.07726754184385208</v>
+        <v>0.1252964298727204</v>
       </c>
       <c r="Q26">
-        <v>0.06328353011566668</v>
+        <v>0.332698433049</v>
       </c>
       <c r="R26">
-        <v>0.569551771041</v>
+        <v>2.994285897441</v>
       </c>
       <c r="S26">
-        <v>0.002553991367982374</v>
+        <v>0.00990785427057767</v>
       </c>
       <c r="T26">
-        <v>0.002553991367982374</v>
+        <v>0.00990785427057767</v>
       </c>
     </row>
   </sheetData>
